--- a/data/trans_bre/P14_3-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P14_3-Urba-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>11,31%</t>
+          <t>14,99%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,59%</t>
+          <t>0,48%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,5; 2,23</t>
+          <t>-1,29; 2,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 3,09</t>
+          <t>-2,95; 2,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-38,39; 92,61</t>
+          <t>-33,21; 104,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-29,49; 44,35</t>
+          <t>-29,77; 42,65</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>4,29%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,6%</t>
+          <t>-1,2%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 1,82</t>
+          <t>-1,78; 2,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 2,57</t>
+          <t>-3,16; 2,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-54,77; 108,05</t>
+          <t>-51,46; 112,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-39,94; 46,97</t>
+          <t>-38,38; 52,45</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>-1,01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>87,53%</t>
+          <t>-17,3%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-20,74%</t>
+          <t>-13,96%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 12,72</t>
+          <t>-4,69; 3,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 3,35</t>
+          <t>-7,48; 4,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-77,89; 1999,6</t>
+          <t>-85,61; 583,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-71,84; 79,71</t>
+          <t>-69,93; 117,26</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,23</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,26</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,95%</t>
+          <t>7,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,43%</t>
+          <t>-1,18%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,29 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 2,0</t>
+          <t>-1,06; 1,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 1,55</t>
+          <t>-2,04; 1,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-24,32; 90,04</t>
+          <t>-28,32; 63,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,03; 22,82</t>
+          <t>-22,51; 28,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P14_3-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P14_3-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,47</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,04</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>14,99%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,48%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.4135752611973881</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.01726815997358383</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.1326824329116072</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.002113087429578226</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,29; 2,4</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-2,95; 2,78</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-33,21; 104,76</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-29,77; 42,65</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-1.299896183397726</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.076707998430015</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.3318900122512272</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.3033580215426032</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>2.298774432234929</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.765590478843778</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>1.09202972740425</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.4109430232829368</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,08</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>4,29%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,2%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,78; 2,02</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-3,16; 2,77</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-51,46; 112,97</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-38,38; 52,45</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>0.1450774826296589</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.05953697987909901</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.05946048691829656</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>-0.008913306145798616</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,51</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-1,01</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-17,3%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-13,96%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.676609212215187</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-3.052329701114464</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.5108532282848341</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.3662774879195904</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,69; 3,17</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,48; 4,52</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-85,61; 583,17</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-69,93; 117,26</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.97441454403682</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.807740914267196</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>1.143873320273066</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.5502208566269862</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,57 +716,123 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,23</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,09</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7,96%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-1,18%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.34928876671592</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.052276186958596</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.5209060347459014</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.1494404857591179</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,06; 1,48</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,04; 1,78</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-28,32; 63,8</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-22,51; 28,37</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.357551995682633</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-7.439247278847831</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.7718501521363695</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.6947120602120065</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>9.805285841263194</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>4.280161363256705</v>
+      </c>
+      <c r="E12" s="6" t="inlineStr"/>
+      <c r="F12" s="6" t="n">
+        <v>1.223942192017938</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>0.430206178087112</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-0.09709168078186892</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.1546051774205263</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>-0.01305536990310057</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.8195860080098465</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-2.124121123118849</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2391019158574142</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.2447733047611171</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.721016997047988</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.782423048494564</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.792502895291072</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.2768222033497896</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -817,13 +840,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
